--- a/data1.xlsx
+++ b/data1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>Menu 1</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Menu 1d</t>
   </si>
   <si>
-    <t>1. What is a Computer?</t>
-  </si>
-  <si>
-    <t>2. Buying Computer Project</t>
-  </si>
-  <si>
     <t>Computer Buying Interview</t>
   </si>
   <si>
@@ -82,13 +76,145 @@
     <t>Unit 1: Human Computer Interaction</t>
   </si>
   <si>
-    <t>1. Exploring CS Syllabus</t>
-  </si>
-  <si>
-    <t>2. Back to School Powerpoint</t>
-  </si>
-  <si>
-    <t>3. Search Engines</t>
+    <t>Internet Scavenger Hunt - Google Doc</t>
+  </si>
+  <si>
+    <t>Period's 1 Turn in Link</t>
+  </si>
+  <si>
+    <t>Period's 6 Turn in Link</t>
+  </si>
+  <si>
+    <t>Web 2.0 Project</t>
+  </si>
+  <si>
+    <t>Computers for Communications and Impact on Society</t>
+  </si>
+  <si>
+    <t>Search Engines</t>
+  </si>
+  <si>
+    <t>Buying Computer Project</t>
+  </si>
+  <si>
+    <t>What is a Computer?</t>
+  </si>
+  <si>
+    <t>Back to School Powerpoint</t>
+  </si>
+  <si>
+    <t>Exploring CS Syllabus</t>
+  </si>
+  <si>
+    <t>Communication Methods Chart- Google Doc</t>
+  </si>
+  <si>
+    <t>Privacy Activity</t>
+  </si>
+  <si>
+    <t>Modeling, Design and Mathematics</t>
+  </si>
+  <si>
+    <t>Points of View</t>
+  </si>
+  <si>
+    <t>Communication Methods Chart and Data Chart- Google Doc</t>
+  </si>
+  <si>
+    <t>Concept of a Computer Program</t>
+  </si>
+  <si>
+    <t>What is Intelligence</t>
+  </si>
+  <si>
+    <t>The Turing Test - Google Doc</t>
+  </si>
+  <si>
+    <t>Unit 2: Problem Solving</t>
+  </si>
+  <si>
+    <t>Handshakes, Fence Posts and Match No Match</t>
+  </si>
+  <si>
+    <t>The Chant</t>
+  </si>
+  <si>
+    <t>Number Systems</t>
+  </si>
+  <si>
+    <t>Binary Numbers</t>
+  </si>
+  <si>
+    <t>Number Systems Puzzle</t>
+  </si>
+  <si>
+    <t>Tower Building Activity</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Sorting Algorithms</t>
+  </si>
+  <si>
+    <t>Sorting Worksheet</t>
+  </si>
+  <si>
+    <t>The Muddy City Problem</t>
+  </si>
+  <si>
+    <t>Mr. Daglers Summer Trip</t>
+  </si>
+  <si>
+    <t>Searching Algorithms</t>
+  </si>
+  <si>
+    <t>Minimal Spanning Trees</t>
+  </si>
+  <si>
+    <t>1. Intro to File Systems</t>
+  </si>
+  <si>
+    <t>Codeacady - CLI</t>
+  </si>
+  <si>
+    <t>Note Sheet for CLI, Lessons 1-2</t>
+  </si>
+  <si>
+    <t>2. More CLI</t>
+  </si>
+  <si>
+    <t>List of Command Line Commands</t>
+  </si>
+  <si>
+    <t>Unit 2.5: The Command Line Interface</t>
+  </si>
+  <si>
+    <t>Unit 3: Web Design</t>
+  </si>
+  <si>
+    <t>Blank Storyboard</t>
+  </si>
+  <si>
+    <t>Rebric for Website</t>
+  </si>
+  <si>
+    <t>linux.jpg</t>
+  </si>
+  <si>
+    <t>chalkboard-background.jpg</t>
+  </si>
+  <si>
+    <t>Creating a Storyboard</t>
+  </si>
+  <si>
+    <t>Intro to HTML</t>
+  </si>
+  <si>
+    <t>Images and HTML</t>
+  </si>
+  <si>
+    <t>Intro to CSS</t>
   </si>
 </sst>
 </file>
@@ -481,67 +607,322 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1DE1B4-88FD-4A68-8E81-3BF3E6B655B6}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
